--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ltb-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Ltbr</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H2">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I2">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J2">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N2">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O2">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P2">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q2">
-        <v>7.678487901892889</v>
+        <v>5.318749164965333</v>
       </c>
       <c r="R2">
-        <v>69.10639111703601</v>
+        <v>47.868742484688</v>
       </c>
       <c r="S2">
-        <v>0.0168683530743035</v>
+        <v>0.009624867399166419</v>
       </c>
       <c r="T2">
-        <v>0.01686835307430351</v>
+        <v>0.009624867399166421</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H3">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I3">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J3">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>63.648451</v>
       </c>
       <c r="O3">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P3">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q3">
-        <v>11.39609956644756</v>
+        <v>7.955271377437667</v>
       </c>
       <c r="R3">
-        <v>102.564896098028</v>
+        <v>71.597442396939</v>
       </c>
       <c r="S3">
-        <v>0.02503532383105864</v>
+        <v>0.01439594719686703</v>
       </c>
       <c r="T3">
-        <v>0.02503532383105864</v>
+        <v>0.01439594719686703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H4">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I4">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J4">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N4">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O4">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P4">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q4">
-        <v>8.056549501161777</v>
+        <v>5.896401914269999</v>
       </c>
       <c r="R4">
-        <v>72.508945510456</v>
+        <v>53.06761722843</v>
       </c>
       <c r="S4">
-        <v>0.01769889114661476</v>
+        <v>0.01067019421236604</v>
       </c>
       <c r="T4">
-        <v>0.01769889114661477</v>
+        <v>0.01067019421236604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H5">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I5">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J5">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N5">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O5">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P5">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q5">
-        <v>2.011528920977333</v>
+        <v>1.602480123026</v>
       </c>
       <c r="R5">
-        <v>18.103760288796</v>
+        <v>14.422321107234</v>
       </c>
       <c r="S5">
-        <v>0.004418992449002069</v>
+        <v>0.002899865779631228</v>
       </c>
       <c r="T5">
-        <v>0.004418992449002069</v>
+        <v>0.002899865779631228</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5371426666666667</v>
+        <v>0.374963</v>
       </c>
       <c r="H6">
-        <v>1.611428</v>
+        <v>1.124889</v>
       </c>
       <c r="I6">
-        <v>0.08294355669112122</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="J6">
-        <v>0.08294355669112123</v>
+        <v>0.04452398333997499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.03541933333333</v>
+        <v>10.21772833333333</v>
       </c>
       <c r="N6">
-        <v>48.106258</v>
+        <v>30.653185</v>
       </c>
       <c r="O6">
-        <v>0.228130995884431</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="P6">
-        <v>0.2281309958844309</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="Q6">
-        <v>8.613307901824889</v>
+        <v>3.831270069051667</v>
       </c>
       <c r="R6">
-        <v>77.519771116424</v>
+        <v>34.481430621465</v>
       </c>
       <c r="S6">
-        <v>0.01892199619014224</v>
+        <v>0.006933108751944275</v>
       </c>
       <c r="T6">
-        <v>0.01892199619014224</v>
+        <v>0.006933108751944277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>0.401303</v>
       </c>
       <c r="I7">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J7">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N7">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O7">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P7">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q7">
-        <v>1.912217133184556</v>
+        <v>1.897458323575111</v>
       </c>
       <c r="R7">
-        <v>17.209954198661</v>
+        <v>17.077124912176</v>
       </c>
       <c r="S7">
-        <v>0.004200821069124541</v>
+        <v>0.003433661598511214</v>
       </c>
       <c r="T7">
-        <v>0.004200821069124541</v>
+        <v>0.003433661598511215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>0.401303</v>
       </c>
       <c r="I8">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J8">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>63.648451</v>
       </c>
       <c r="O8">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P8">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q8">
         <v>2.838034925739223</v>
@@ -948,10 +948,10 @@
         <v>25.542314331653</v>
       </c>
       <c r="S8">
-        <v>0.006234687841700234</v>
+        <v>0.005135739435574825</v>
       </c>
       <c r="T8">
-        <v>0.006234687841700234</v>
+        <v>0.005135739435574825</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>0.401303</v>
       </c>
       <c r="I9">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J9">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N9">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O9">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P9">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q9">
-        <v>2.006367944745111</v>
+        <v>2.103535350956667</v>
       </c>
       <c r="R9">
-        <v>18.057311502706</v>
+        <v>18.93181815861</v>
       </c>
       <c r="S9">
-        <v>0.004407654647809238</v>
+        <v>0.003806580869761485</v>
       </c>
       <c r="T9">
-        <v>0.004407654647809239</v>
+        <v>0.003806580869761485</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1042,10 +1042,10 @@
         <v>0.401303</v>
       </c>
       <c r="I10">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J10">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N10">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O10">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P10">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q10">
-        <v>0.5009423881023334</v>
+        <v>0.5716831445686666</v>
       </c>
       <c r="R10">
-        <v>4.508481492921001</v>
+        <v>5.145148301118</v>
       </c>
       <c r="S10">
-        <v>0.001100486603659535</v>
+        <v>0.001034524150350257</v>
       </c>
       <c r="T10">
-        <v>0.001100486603659535</v>
+        <v>0.001034524150350258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1104,10 +1104,10 @@
         <v>0.401303</v>
       </c>
       <c r="I11">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="J11">
-        <v>0.02065590155490473</v>
+        <v>0.0158838855089542</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.03541933333333</v>
+        <v>10.21772833333333</v>
       </c>
       <c r="N11">
-        <v>48.106258</v>
+        <v>30.653185</v>
       </c>
       <c r="O11">
-        <v>0.228130995884431</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="P11">
-        <v>0.2281309958844309</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="Q11">
-        <v>2.145020628241556</v>
+        <v>1.366801677783889</v>
       </c>
       <c r="R11">
-        <v>19.305185654174</v>
+        <v>12.301215100055</v>
       </c>
       <c r="S11">
-        <v>0.004712251392611183</v>
+        <v>0.00247337945475642</v>
       </c>
       <c r="T11">
-        <v>0.004712251392611182</v>
+        <v>0.00247337945475642</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H12">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I12">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J12">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N12">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O12">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P12">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q12">
-        <v>32.59753096588167</v>
+        <v>57.73313989558044</v>
       </c>
       <c r="R12">
-        <v>293.377778692935</v>
+        <v>519.598259060224</v>
       </c>
       <c r="S12">
-        <v>0.07161132096691608</v>
+        <v>0.1044745294049053</v>
       </c>
       <c r="T12">
-        <v>0.07161132096691608</v>
+        <v>0.1044745294049053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H13">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I13">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J13">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>63.648451</v>
       </c>
       <c r="O13">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P13">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q13">
-        <v>48.37993017036167</v>
+        <v>86.35165545429689</v>
       </c>
       <c r="R13">
-        <v>435.419371533255</v>
+        <v>777.164899088672</v>
       </c>
       <c r="S13">
-        <v>0.1062826111404861</v>
+        <v>0.15626291213745</v>
       </c>
       <c r="T13">
-        <v>0.1062826111404861</v>
+        <v>0.15626291213745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H14">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I14">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J14">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N14">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O14">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P14">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q14">
-        <v>34.20251815172333</v>
+        <v>64.00335605962665</v>
       </c>
       <c r="R14">
-        <v>307.82266336551</v>
+        <v>576.03020453664</v>
       </c>
       <c r="S14">
-        <v>0.07513720925070641</v>
+        <v>0.1158211820240175</v>
       </c>
       <c r="T14">
-        <v>0.07513720925070642</v>
+        <v>0.1158211820240175</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H15">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I15">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J15">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N15">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O15">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P15">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q15">
-        <v>8.539555851115001</v>
+        <v>17.39435462231466</v>
       </c>
       <c r="R15">
-        <v>76.856002660035</v>
+        <v>156.549191600832</v>
       </c>
       <c r="S15">
-        <v>0.01875997527570912</v>
+        <v>0.03147701678369097</v>
       </c>
       <c r="T15">
-        <v>0.01875997527570912</v>
+        <v>0.03147701678369098</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.280335</v>
+        <v>4.070090666666666</v>
       </c>
       <c r="H16">
-        <v>6.841005</v>
+        <v>12.210272</v>
       </c>
       <c r="I16">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="J16">
-        <v>0.3521207810971038</v>
+        <v>0.4832920822450598</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.03541933333333</v>
+        <v>10.21772833333333</v>
       </c>
       <c r="N16">
-        <v>48.106258</v>
+        <v>30.653185</v>
       </c>
       <c r="O16">
-        <v>0.228130995884431</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="P16">
-        <v>0.2281309958844309</v>
+        <v>0.1557162731601222</v>
       </c>
       <c r="Q16">
-        <v>36.56612794547667</v>
+        <v>41.58708072403555</v>
       </c>
       <c r="R16">
-        <v>329.09515150929</v>
+        <v>374.28372651632</v>
       </c>
       <c r="S16">
-        <v>0.080329664463286</v>
+        <v>0.07525644189499599</v>
       </c>
       <c r="T16">
-        <v>0.08032966446328599</v>
+        <v>0.075256441894996</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H17">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I17">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J17">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>14.29506233333333</v>
+        <v>14.18473066666667</v>
       </c>
       <c r="N17">
-        <v>42.885187</v>
+        <v>42.554192</v>
       </c>
       <c r="O17">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729168</v>
       </c>
       <c r="P17">
-        <v>0.2033714702773193</v>
+        <v>0.2161726484729169</v>
       </c>
       <c r="Q17">
-        <v>50.386621024853</v>
+        <v>0.1921179921493333</v>
       </c>
       <c r="R17">
-        <v>453.479589223677</v>
+        <v>1.729061929344</v>
       </c>
       <c r="S17">
-        <v>0.1106909751669751</v>
+        <v>0.0003476588464843465</v>
       </c>
       <c r="T17">
-        <v>0.1106909751669751</v>
+        <v>0.0003476588464843465</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H18">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I18">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J18">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>63.648451</v>
       </c>
       <c r="O18">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="P18">
-        <v>0.3018356678902651</v>
+        <v>0.3233301721219069</v>
       </c>
       <c r="Q18">
-        <v>74.781774400469</v>
+        <v>0.2873515401146667</v>
       </c>
       <c r="R18">
-        <v>673.035969604221</v>
+        <v>2.586163861032</v>
       </c>
       <c r="S18">
-        <v>0.16428304507702</v>
+        <v>0.0005199945296852412</v>
       </c>
       <c r="T18">
-        <v>0.16428304507702</v>
+        <v>0.0005199945296852411</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H19">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I19">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J19">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.99890066666667</v>
+        <v>15.72529</v>
       </c>
       <c r="N19">
-        <v>44.996702</v>
+        <v>47.17587</v>
       </c>
       <c r="O19">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="P19">
-        <v>0.2133847625141612</v>
+        <v>0.2396504852427705</v>
       </c>
       <c r="Q19">
-        <v>52.86748011713799</v>
+        <v>0.21298332776</v>
       </c>
       <c r="R19">
-        <v>475.807321054242</v>
+        <v>1.91684994984</v>
       </c>
       <c r="S19">
-        <v>0.1161410074690307</v>
+        <v>0.0003854169889090007</v>
       </c>
       <c r="T19">
-        <v>0.1161410074690307</v>
+        <v>0.0003854169889090006</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>3.524757</v>
+        <v>0.013544</v>
       </c>
       <c r="H20">
-        <v>10.574271</v>
+        <v>0.040632</v>
       </c>
       <c r="I20">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="J20">
-        <v>0.5442797606568702</v>
+        <v>0.001608246227912144</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.744869</v>
+        <v>4.273701999999999</v>
       </c>
       <c r="N20">
-        <v>11.234607</v>
+        <v>12.821106</v>
       </c>
       <c r="O20">
-        <v>0.0532771034338235</v>
+        <v>0.0651304210022835</v>
       </c>
       <c r="P20">
-        <v>0.0532771034338235</v>
+        <v>0.06513042100228351</v>
       </c>
       <c r="Q20">
-        <v>13.199753221833</v>
+        <v>0.05788301988799999</v>
       </c>
       <c r="R20">
-        <v>118.797778996497</v>
+        <v>0.5209471789919999</v>
       </c>
       <c r="S20">
-        <v>0.02899764910545278</v>
+        <v>0.0001047457538992523</v>
       </c>
       <c r="T20">
-        <v>0.02899764910545278</v>
+        <v>0.0001047457538992523</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.013544</v>
+      </c>
+      <c r="H21">
+        <v>0.040632</v>
+      </c>
+      <c r="I21">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="J21">
+        <v>0.001608246227912144</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.21772833333333</v>
+      </c>
+      <c r="N21">
+        <v>30.653185</v>
+      </c>
+      <c r="O21">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="P21">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="Q21">
+        <v>0.1383889125466667</v>
+      </c>
+      <c r="R21">
+        <v>1.24550021292</v>
+      </c>
+      <c r="S21">
+        <v>0.0002504301089343036</v>
+      </c>
+      <c r="T21">
+        <v>0.0002504301089343036</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H22">
+        <v>11.487692</v>
+      </c>
+      <c r="I22">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J22">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.18473066666667</v>
+      </c>
+      <c r="N22">
+        <v>42.554192</v>
+      </c>
+      <c r="O22">
+        <v>0.2161726484729168</v>
+      </c>
+      <c r="P22">
+        <v>0.2161726484729169</v>
+      </c>
+      <c r="Q22">
+        <v>54.31660566720711</v>
+      </c>
+      <c r="R22">
+        <v>488.849451004864</v>
+      </c>
+      <c r="S22">
+        <v>0.09829193122384952</v>
+      </c>
+      <c r="T22">
+        <v>0.09829193122384954</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H23">
+        <v>11.487692</v>
+      </c>
+      <c r="I23">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J23">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>21.21615033333333</v>
+      </c>
+      <c r="N23">
+        <v>63.648451</v>
+      </c>
+      <c r="O23">
+        <v>0.3233301721219069</v>
+      </c>
+      <c r="P23">
+        <v>0.3233301721219069</v>
+      </c>
+      <c r="Q23">
+        <v>81.24153348501022</v>
+      </c>
+      <c r="R23">
+        <v>731.173801365092</v>
+      </c>
+      <c r="S23">
+        <v>0.1470155788223298</v>
+      </c>
+      <c r="T23">
+        <v>0.1470155788223298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H24">
+        <v>11.487692</v>
+      </c>
+      <c r="I24">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J24">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.72529</v>
+      </c>
+      <c r="N24">
+        <v>47.17587</v>
+      </c>
+      <c r="O24">
+        <v>0.2396504852427705</v>
+      </c>
+      <c r="P24">
+        <v>0.2396504852427705</v>
+      </c>
+      <c r="Q24">
+        <v>60.21576271022666</v>
+      </c>
+      <c r="R24">
+        <v>541.9418643920399</v>
+      </c>
+      <c r="S24">
+        <v>0.1089671111477164</v>
+      </c>
+      <c r="T24">
+        <v>0.1089671111477165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>3.524757</v>
-      </c>
-      <c r="H21">
-        <v>10.574271</v>
-      </c>
-      <c r="I21">
-        <v>0.5442797606568702</v>
-      </c>
-      <c r="J21">
-        <v>0.5442797606568702</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>16.03541933333333</v>
-      </c>
-      <c r="N21">
-        <v>48.106258</v>
-      </c>
-      <c r="O21">
-        <v>0.228130995884431</v>
-      </c>
-      <c r="P21">
-        <v>0.2281309958844309</v>
-      </c>
-      <c r="Q21">
-        <v>56.520956543102</v>
-      </c>
-      <c r="R21">
-        <v>508.688608887918</v>
-      </c>
-      <c r="S21">
-        <v>0.1241670838383915</v>
-      </c>
-      <c r="T21">
-        <v>0.1241670838383915</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H25">
+        <v>11.487692</v>
+      </c>
+      <c r="I25">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J25">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.273701999999999</v>
+      </c>
+      <c r="N25">
+        <v>12.821106</v>
+      </c>
+      <c r="O25">
+        <v>0.0651304210022835</v>
+      </c>
+      <c r="P25">
+        <v>0.06513042100228351</v>
+      </c>
+      <c r="Q25">
+        <v>16.36499075859466</v>
+      </c>
+      <c r="R25">
+        <v>147.284916827352</v>
+      </c>
+      <c r="S25">
+        <v>0.02961426853471179</v>
+      </c>
+      <c r="T25">
+        <v>0.0296142685347118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.829230666666666</v>
+      </c>
+      <c r="H26">
+        <v>11.487692</v>
+      </c>
+      <c r="I26">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="J26">
+        <v>0.4546918026780988</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.21772833333333</v>
+      </c>
+      <c r="N26">
+        <v>30.653185</v>
+      </c>
+      <c r="O26">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="P26">
+        <v>0.1557162731601222</v>
+      </c>
+      <c r="Q26">
+        <v>39.12603867766889</v>
+      </c>
+      <c r="R26">
+        <v>352.13434809902</v>
+      </c>
+      <c r="S26">
+        <v>0.07080291294949123</v>
+      </c>
+      <c r="T26">
+        <v>0.07080291294949123</v>
       </c>
     </row>
   </sheetData>
